--- a/data/trans_dic/IP2005-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>93,69%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,81; 86,87</t>
+          <t>76,73; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,35; 92,92</t>
+          <t>70,1; 96,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,29; 94,97</t>
+          <t>78,06; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,37; 92,62</t>
+          <t>71,34; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,68; 90,41</t>
+          <t>72,02; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,4; 92,56</t>
+          <t>65,62; 96,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,56; 95,5</t>
+          <t>68,24; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,82; 95,45</t>
+          <t>77,88; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,64; 87,52</t>
+          <t>82,2; 97,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,92; 91,99</t>
+          <t>71,58; 94,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>89,8; 94,4</t>
+          <t>77,63; 96,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,08; 93,11</t>
+          <t>83,18; 98,29</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>81,4%</t>
+          <t>91,02%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,96; 93,12</t>
+          <t>78,81; 86,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,04; 96,28</t>
+          <t>86,35; 92,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,61; 94,74</t>
+          <t>89,29; 94,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,0; 88,21</t>
+          <t>85,37; 92,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,33; 92,09</t>
+          <t>82,68; 90,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,42; 94,58</t>
+          <t>85,4; 92,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,79; 95,28</t>
+          <t>89,56; 95,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,44; 83,86</t>
+          <t>88,82; 95,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,27; 91,88</t>
+          <t>81,64; 87,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>89,99; 94,63</t>
+          <t>86,92; 91,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,28; 94,28</t>
+          <t>89,8; 94,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,76; 84,99</t>
+          <t>88,08; 93,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>88,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>88,43%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,73; 100,0</t>
+          <t>88,9; 96,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>70,1; 96,53</t>
+          <t>86,8; 94,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,06; 100,0</t>
+          <t>85,52; 93,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,34; 100,0</t>
+          <t>83,71; 92,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,02; 100,0</t>
+          <t>86,0; 93,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,62; 96,34</t>
+          <t>85,77; 93,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,24; 100,0</t>
+          <t>91,04; 96,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,88; 100,0</t>
+          <t>83,4; 92,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,2; 97,89</t>
+          <t>89,01; 94,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,58; 94,6</t>
+          <t>87,64; 93,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>77,63; 96,43</t>
+          <t>89,49; 94,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,18; 98,29</t>
+          <t>85,01; 91,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>81,4%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,9; 96,1</t>
+          <t>85,96; 93,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,8; 94,16</t>
+          <t>90,04; 96,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,52; 93,86</t>
+          <t>87,61; 94,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,71; 92,33</t>
+          <t>78,0; 88,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,0; 93,7</t>
+          <t>84,33; 92,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,77; 93,61</t>
+          <t>87,42; 94,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,04; 96,86</t>
+          <t>88,79; 95,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,4; 92,12</t>
+          <t>72,44; 83,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,01; 94,09</t>
+          <t>86,27; 91,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87,64; 93,18</t>
+          <t>89,99; 94,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,49; 94,29</t>
+          <t>89,28; 94,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,01; 91,38</t>
+          <t>77,76; 84,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2005-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,73; 100,0</t>
+          <t>73,58; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,1; 96,53</t>
+          <t>69,95; 96,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,06; 100,0</t>
+          <t>77,94; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,02; 100,0</t>
+          <t>75,51; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,62; 96,34</t>
+          <t>65,61; 96,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>68,24; 100,0</t>
+          <t>64,93; 96,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>82,2; 97,89</t>
+          <t>81,99; 97,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,58; 94,6</t>
+          <t>73,87; 94,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,63; 96,43</t>
+          <t>79,22; 96,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,59; 94,05</t>
+          <t>85,51; 94,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,99; 93,52</t>
+          <t>83,89; 93,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,26; 93,32</t>
+          <t>83,53; 93,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,69; 93,88</t>
+          <t>82,83; 94,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,96; 94,41</t>
+          <t>85,43; 94,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,94; 94,41</t>
+          <t>84,78; 94,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,62; 97,9</t>
+          <t>89,78; 97,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,98; 94,08</t>
+          <t>83,16; 93,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,1; 93,49</t>
+          <t>87,05; 93,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,85; 92,65</t>
+          <t>85,87; 92,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>88,45; 94,64</t>
+          <t>88,43; 94,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,11; 92,81</t>
+          <t>85,36; 92,83</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,81; 86,87</t>
+          <t>78,68; 86,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,35; 92,92</t>
+          <t>86,16; 93,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,29; 94,97</t>
+          <t>89,25; 95,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,37; 92,62</t>
+          <t>85,93; 93,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,68; 90,41</t>
+          <t>82,42; 90,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,4; 92,56</t>
+          <t>85,4; 92,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,56; 95,5</t>
+          <t>89,32; 95,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,82; 95,45</t>
+          <t>89,41; 95,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,64; 87,52</t>
+          <t>82,04; 87,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,92; 91,99</t>
+          <t>86,67; 91,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,8; 94,4</t>
+          <t>90,51; 94,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>88,08; 93,11</t>
+          <t>88,34; 93,12</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,9; 96,1</t>
+          <t>88,66; 96,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,8; 94,16</t>
+          <t>87,0; 94,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,52; 93,86</t>
+          <t>86,04; 94,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,71; 92,33</t>
+          <t>83,71; 92,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,0; 93,7</t>
+          <t>86,37; 93,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,77; 93,61</t>
+          <t>85,13; 93,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,04; 96,86</t>
+          <t>91,03; 96,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,4; 92,12</t>
+          <t>82,72; 91,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,01; 94,09</t>
+          <t>88,75; 94,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>87,64; 93,18</t>
+          <t>87,73; 93,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,49; 94,29</t>
+          <t>89,39; 94,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,01; 91,38</t>
+          <t>84,72; 91,02</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,96; 93,12</t>
+          <t>86,24; 93,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,04; 96,28</t>
+          <t>89,36; 96,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,61; 94,74</t>
+          <t>87,64; 94,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,0; 88,21</t>
+          <t>78,89; 88,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,33; 92,09</t>
+          <t>84,6; 92,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,42; 94,58</t>
+          <t>88,01; 94,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,79; 95,28</t>
+          <t>88,77; 95,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,44; 83,86</t>
+          <t>72,84; 84,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,27; 91,88</t>
+          <t>86,51; 91,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89,99; 94,63</t>
+          <t>89,95; 94,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,28; 94,28</t>
+          <t>89,34; 94,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,76; 84,99</t>
+          <t>77,64; 84,95</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,69; 90,79</t>
+          <t>86,77; 90,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,86; 92,5</t>
+          <t>89,01; 92,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,35; 92,87</t>
+          <t>89,22; 93,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,7; 90,05</t>
+          <t>85,72; 90,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,8; 90,72</t>
+          <t>86,69; 90,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>88,31; 92,24</t>
+          <t>88,34; 92,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,3; 94,61</t>
+          <t>91,44; 94,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>84,86; 89,28</t>
+          <t>85,01; 89,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,59; 90,24</t>
+          <t>87,35; 90,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>89,25; 91,75</t>
+          <t>89,23; 91,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>90,9; 93,33</t>
+          <t>90,91; 93,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>86,12; 89,11</t>
+          <t>86,2; 89,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2005-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100,0</t>
+          <t>78,47; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,95; 96,49</t>
+          <t>69,89; 96,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,94; 100,0</t>
+          <t>80,52; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>71,34; 100,0</t>
+          <t>68,29; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,51; 100,0</t>
+          <t>72,22; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,61; 96,36</t>
+          <t>58,89; 96,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,93; 96,28</t>
+          <t>65,76; 96,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>77,88; 100,0</t>
+          <t>77,65; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,99; 97,89</t>
+          <t>83,24; 97,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,87; 94,55</t>
+          <t>73,29; 94,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,22; 96,5</t>
+          <t>79,81; 96,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>83,18; 98,29</t>
+          <t>82,79; 98,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,51; 94,19</t>
+          <t>85,33; 94,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,89; 93,02</t>
+          <t>83,9; 93,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,53; 93,43</t>
+          <t>83,22; 93,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,83; 94,09</t>
+          <t>83,51; 94,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,43; 94,03</t>
+          <t>84,75; 93,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,78; 94,12</t>
+          <t>84,1; 94,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,78; 97,87</t>
+          <t>90,39; 97,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,16; 93,92</t>
+          <t>83,58; 93,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,05; 93,35</t>
+          <t>87,28; 93,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,87; 92,66</t>
+          <t>86,46; 93,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 94,88</t>
+          <t>88,52; 94,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,36; 92,83</t>
+          <t>85,55; 92,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,68; 86,89</t>
+          <t>78,82; 87,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,16; 93,11</t>
+          <t>86,2; 92,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,25; 95,13</t>
+          <t>89,24; 95,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,93; 93,05</t>
+          <t>85,53; 92,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,42; 90,07</t>
+          <t>82,76; 90,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,4; 92,52</t>
+          <t>85,36; 92,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,32; 95,3</t>
+          <t>89,47; 95,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,41; 95,47</t>
+          <t>89,5; 95,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,04; 87,79</t>
+          <t>81,87; 87,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,67; 91,84</t>
+          <t>87,13; 91,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,51; 94,58</t>
+          <t>90,24; 94,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>88,34; 93,12</t>
+          <t>88,57; 93,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,66; 96,12</t>
+          <t>88,86; 95,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,0; 94,39</t>
+          <t>86,95; 94,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,04; 94,17</t>
+          <t>85,97; 93,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,71; 92,41</t>
+          <t>84,02; 92,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,37; 93,97</t>
+          <t>85,38; 93,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,13; 93,62</t>
+          <t>85,69; 93,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,03; 96,74</t>
+          <t>91,07; 96,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,72; 91,87</t>
+          <t>83,14; 91,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,75; 94,11</t>
+          <t>88,8; 94,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>87,73; 93,24</t>
+          <t>88,04; 93,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,39; 94,53</t>
+          <t>89,39; 94,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,72; 91,02</t>
+          <t>85,09; 91,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,24; 93,42</t>
+          <t>86,3; 93,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,36; 96,09</t>
+          <t>89,23; 95,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,64; 94,28</t>
+          <t>87,64; 94,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,89; 88,69</t>
+          <t>78,87; 88,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,6; 92,07</t>
+          <t>84,52; 91,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,01; 94,98</t>
+          <t>87,68; 94,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,77; 95,47</t>
+          <t>88,73; 95,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,84; 84,31</t>
+          <t>72,97; 84,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,51; 91,48</t>
+          <t>86,52; 91,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89,95; 94,69</t>
+          <t>89,9; 94,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,34; 94,05</t>
+          <t>89,66; 94,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,64; 84,95</t>
+          <t>77,78; 85,1</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,77; 90,61</t>
+          <t>86,6; 90,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,01; 92,66</t>
+          <t>88,87; 92,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,22; 93,01</t>
+          <t>89,28; 92,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,72; 90,22</t>
+          <t>85,52; 90,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,69; 90,64</t>
+          <t>86,76; 90,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>88,34; 92,18</t>
+          <t>88,32; 92,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,44; 94,58</t>
+          <t>91,44; 94,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,01; 89,54</t>
+          <t>85,1; 89,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,35; 90,16</t>
+          <t>87,36; 90,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>89,23; 91,88</t>
+          <t>89,33; 91,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>90,91; 93,33</t>
+          <t>90,93; 93,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>86,2; 89,29</t>
+          <t>86,05; 89,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2005-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>89,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>89,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>89,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>89,79%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,47; 100,0</t>
+          <t>85,81; 94,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,89; 96,58</t>
+          <t>84,27; 93,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,52; 100,0</t>
+          <t>88,83; 96,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>68,29; 100,0</t>
+          <t>83,77; 93,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,22; 100,0</t>
+          <t>86,88; 94,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,89; 96,21</t>
+          <t>84,1; 93,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,76; 96,26</t>
+          <t>84,54; 93,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>77,65; 100,0</t>
+          <t>84,43; 94,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,24; 97,88</t>
+          <t>87,94; 93,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,29; 94,6</t>
+          <t>85,68; 92,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,81; 96,43</t>
+          <t>88,41; 94,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>82,79; 98,37</t>
+          <t>85,81; 93,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>89,46%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>92,77%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>92,82%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>83,09%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>89,9%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>92,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>89,23%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>89,08%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>89,53%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>90,44%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>90,23%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>95,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>89,48%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>90,77%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,33; 94,32</t>
+          <t>82,68; 90,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,9; 93,12</t>
+          <t>85,4; 92,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,22; 93,17</t>
+          <t>89,56; 95,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,51; 94,1</t>
+          <t>88,92; 95,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,75; 93,93</t>
+          <t>78,81; 86,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,1; 94,13</t>
+          <t>86,35; 92,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,39; 97,96</t>
+          <t>89,29; 94,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,58; 93,71</t>
+          <t>84,76; 92,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,28; 93,61</t>
+          <t>81,64; 87,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86,46; 93,03</t>
+          <t>86,92; 91,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>88,52; 94,72</t>
+          <t>89,8; 94,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,55; 92,98</t>
+          <t>87,79; 92,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>88,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>89,26%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,82; 87,07</t>
+          <t>86,0; 93,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,2; 92,82</t>
+          <t>85,77; 93,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,24; 95,06</t>
+          <t>91,04; 96,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,53; 92,59</t>
+          <t>84,93; 94,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,76; 90,5</t>
+          <t>88,9; 96,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,36; 92,57</t>
+          <t>86,8; 94,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,47; 95,38</t>
+          <t>85,52; 93,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,5; 95,47</t>
+          <t>83,5; 92,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,87; 87,76</t>
+          <t>89,01; 94,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>87,13; 91,97</t>
+          <t>87,64; 93,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,24; 94,44</t>
+          <t>89,49; 94,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>88,57; 93,38</t>
+          <t>85,91; 92,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>81,45%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,86; 95,79</t>
+          <t>84,33; 92,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,95; 94,16</t>
+          <t>87,42; 94,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,97; 93,66</t>
+          <t>88,79; 95,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,02; 92,31</t>
+          <t>72,51; 83,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,38; 93,53</t>
+          <t>85,96; 93,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,69; 93,87</t>
+          <t>90,04; 96,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,07; 96,81</t>
+          <t>87,61; 94,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,14; 91,84</t>
+          <t>78,07; 88,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,8; 94,08</t>
+          <t>86,27; 91,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>88,04; 93,33</t>
+          <t>89,99; 94,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,39; 94,61</t>
+          <t>89,28; 94,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,09; 91,12</t>
+          <t>77,84; 85,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>81,4%</t>
+          <t>87,91%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,3; 93,36</t>
+          <t>86,8; 90,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,23; 95,96</t>
+          <t>88,31; 92,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,64; 94,53</t>
+          <t>91,3; 94,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,87; 88,47</t>
+          <t>85,27; 89,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,52; 91,89</t>
+          <t>86,69; 90,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,68; 94,81</t>
+          <t>88,86; 92,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,73; 95,25</t>
+          <t>89,35; 92,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,97; 84,02</t>
+          <t>85,67; 90,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,52; 91,79</t>
+          <t>87,59; 90,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89,9; 94,68</t>
+          <t>89,25; 91,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,66; 94,38</t>
+          <t>90,9; 93,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,78; 85,1</t>
+          <t>86,23; 89,35</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>88,82%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>90,91%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>91,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>88,11%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>88,84%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>90,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>93,23%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>87,38%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>88,83%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>90,63%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>92,18%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>87,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>86,6; 90,51</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>88,87; 92,52</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>89,28; 92,86</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>85,52; 90,01</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>86,76; 90,76</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>88,32; 92,31</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>91,44; 94,71</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>85,1; 89,54</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>87,36; 90,24</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>89,33; 91,94</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>90,93; 93,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>86,05; 89,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
